--- a/cfg-generator/target/classes/meta_excels/User.xlsx
+++ b/cfg-generator/target/classes/meta_excels/User.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="20940" windowHeight="10320" tabRatio="841"/>
+    <workbookView windowWidth="28140" windowHeight="13040" tabRatio="841"/>
   </bookViews>
   <sheets>
     <sheet name="User" sheetId="1" r:id="rId1"/>
@@ -14,69 +14,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13">
+  <si>
+    <t>序号</t>
+  </si>
   <si>
     <t>玩家等级</t>
   </si>
   <si>
-    <t>升级所需经验</t>
-  </si>
-  <si>
-    <t>体力上限</t>
-  </si>
-  <si>
-    <t>背包格数</t>
-  </si>
-  <si>
-    <t>召唤力上限</t>
-  </si>
-  <si>
-    <t>好友上限</t>
-  </si>
-  <si>
-    <t>升级增加体力</t>
+    <t>升级经验</t>
   </si>
   <si>
     <t>int</t>
   </si>
   <si>
+    <t>id</t>
+  </si>
+  <si>
     <t>level</t>
   </si>
   <si>
     <t>exp</t>
   </si>
   <si>
-    <t>tili</t>
-  </si>
-  <si>
-    <t>bagCount</t>
-  </si>
-  <si>
-    <t>zhaohuanli</t>
-  </si>
-  <si>
-    <t>maxFriend</t>
-  </si>
-  <si>
-    <t>levelUpTili</t>
-  </si>
-  <si>
     <t>excel</t>
   </si>
   <si>
-    <t>召唤师升级配置.xlsx</t>
+    <t>玩家表.xlsx</t>
   </si>
   <si>
     <t>excel_sheet</t>
   </si>
   <si>
-    <t>玩家升级表</t>
+    <t>Sheet1</t>
   </si>
   <si>
     <t>java_package</t>
   </si>
   <si>
-    <t>com.kingdowin.newlol.config.user</t>
+    <t>com.qn.landgrabber.cfg.user</t>
   </si>
 </sst>
 </file>
@@ -84,22 +60,17 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
       <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -111,14 +82,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -128,27 +92,27 @@
     </border>
   </borders>
   <cellStyleXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -209,71 +173,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -464,11 +428,11 @@
         </a:custGeom>
         <a:gradFill rotWithShape="0">
           <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
             <a:gs pos="100000">
               <a:srgbClr val="9CBEE0"/>
-            </a:gs>
-            <a:gs pos="0">
-              <a:srgbClr val="BBD5F0"/>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
@@ -492,15 +456,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="2"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -510,87 +474,51 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="C3" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
